--- a/data.xlsx
+++ b/data.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\school\DT133G\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Min enhet\Programvaruteknik\År 3\Exjobb\dt133g_vocal_rp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E404D2-B9F6-4EF1-8C58-2CF3883C597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13656"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Words</t>
   </si>
@@ -72,15 +83,28 @@
   </si>
   <si>
     <t>Talon</t>
+  </si>
+  <si>
+    <t>Single characters</t>
+  </si>
+  <si>
+    <t>Avg. of final two examples</t>
+  </si>
+  <si>
+    <t>Avg. of all examples</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -128,7 +152,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -136,7 +160,9 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,22 +444,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -446,8 +480,11 @@
       <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -481,8 +518,17 @@
       <c r="P2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -496,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4">
-        <f>((E3-D3)/D3)</f>
+        <f t="shared" ref="F3:F12" si="0">((E3-D3)/D3)</f>
         <v>-0.125</v>
       </c>
       <c r="H3">
@@ -510,11 +556,11 @@
         <v>-0.17525773195876287</v>
       </c>
       <c r="M3" s="3">
-        <f>B3/H3</f>
+        <f t="shared" ref="M3:M10" si="1">B3/H3</f>
         <v>4.072164948453608</v>
       </c>
       <c r="N3" s="3">
-        <f>B3/I3</f>
+        <f t="shared" ref="N3:N10" si="2">B3/I3</f>
         <v>4.9375</v>
       </c>
       <c r="O3" s="3"/>
@@ -522,8 +568,18 @@
         <f>((N3-M3)/M3)</f>
         <v>0.21250000000000008</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>26</v>
+      </c>
+      <c r="S3">
+        <v>15</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U10" si="3">((S3-R3)/R3)</f>
+        <v>-0.42307692307692307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -537,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="4">
-        <f>((E4-D4)/D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
@@ -547,24 +603,34 @@
         <v>63</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K10" si="0">((I4-H4)/H4)</f>
+        <f t="shared" ref="K4:K12" si="4">((I4-H4)/H4)</f>
         <v>-5.9701492537313432E-2</v>
       </c>
       <c r="M4" s="3">
-        <f>B4/H4</f>
+        <f t="shared" si="1"/>
         <v>4.4179104477611943</v>
       </c>
       <c r="N4" s="3">
-        <f>B4/I4</f>
+        <f t="shared" si="2"/>
         <v>4.6984126984126986</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P10" si="1">((N4-M4)/M4)</f>
+        <f t="shared" ref="P4:P12" si="5">((N4-M4)/M4)</f>
         <v>6.3492063492063461E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -578,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="4">
-        <f>((E5-D5)/D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
@@ -588,24 +654,34 @@
         <v>47</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.12962962962962962</v>
       </c>
       <c r="M5" s="3">
-        <f>B5/H5</f>
+        <f t="shared" si="1"/>
         <v>5.2222222222222223</v>
       </c>
       <c r="N5" s="3">
-        <f>B5/I5</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.14893617021276592</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -619,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="4">
-        <f>((E6-D6)/D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
@@ -629,24 +705,34 @@
         <v>44</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.27868852459016391</v>
       </c>
       <c r="M6" s="3">
-        <f>B6/H6</f>
+        <f t="shared" si="1"/>
         <v>3.3278688524590163</v>
       </c>
       <c r="N6" s="3">
-        <f>B6/I6</f>
+        <f t="shared" si="2"/>
         <v>4.6136363636363633</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.3863636363636363</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -660,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="4">
-        <f>((E7-D7)/D7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
@@ -670,24 +756,34 @@
         <v>32</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.28888888888888886</v>
       </c>
       <c r="M7" s="3">
-        <f>B7/H7</f>
+        <f t="shared" si="1"/>
         <v>3.6444444444444444</v>
       </c>
       <c r="N7" s="3">
-        <f>B7/I7</f>
+        <f t="shared" si="2"/>
         <v>5.125</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -701,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="4">
-        <f>((E8-D8)/D8)</f>
+        <f t="shared" si="0"/>
         <v>-7.1428571428571425E-2</v>
       </c>
       <c r="H8">
@@ -711,24 +807,34 @@
         <v>76</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.28971962616822428</v>
       </c>
       <c r="M8" s="3">
-        <f>B8/H8</f>
+        <f t="shared" si="1"/>
         <v>3.6168224299065419</v>
       </c>
       <c r="N8" s="3">
-        <f>B8/I8</f>
+        <f t="shared" si="2"/>
         <v>5.0921052631578947</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.40789473684210531</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>21</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -742,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="4">
-        <f>((E9-D9)/D9)</f>
+        <f t="shared" si="0"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="H9">
@@ -755,15 +861,15 @@
         <v>212</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-7.3770491803278687E-2</v>
       </c>
       <c r="M9" s="3">
-        <f>B9/H9</f>
+        <f t="shared" si="1"/>
         <v>3.959016393442623</v>
       </c>
       <c r="N9" s="3">
-        <f>B9/I9</f>
+        <f t="shared" si="2"/>
         <v>4.2743362831858409</v>
       </c>
       <c r="O9" s="3">
@@ -771,11 +877,24 @@
         <v>2.2783018867924527</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.9646017699115085E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>16</v>
+      </c>
+      <c r="T9">
+        <v>90</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -789,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="4">
-        <f>((E10-D10)/D10)</f>
+        <f t="shared" si="0"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="H10">
@@ -802,15 +921,15 @@
         <v>174</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.25274725274725274</v>
       </c>
       <c r="M10" s="3">
-        <f>B10/H10</f>
+        <f t="shared" si="1"/>
         <v>2.9340659340659339</v>
       </c>
       <c r="N10" s="3">
-        <f>B10/I10</f>
+        <f t="shared" si="2"/>
         <v>3.9264705882352939</v>
       </c>
       <c r="O10" s="3">
@@ -818,43 +937,199 @@
         <v>1.5344827586206897</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.33823529411764708</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <v>131</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
         <f>AVERAGE(B3:B10)</f>
         <v>309.625</v>
       </c>
-      <c r="D11" s="5">
+      <c r="C12" s="1"/>
+      <c r="D12" s="5">
         <f>AVERAGE(D3:D10)</f>
         <v>8.875</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <f>AVERAGE(E3:E10)</f>
         <v>7.75</v>
       </c>
-      <c r="H11" s="5">
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.12676056338028169</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="5">
         <f>AVERAGE(H3:H10)</f>
         <v>80.5</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="5">
         <f>AVERAGE(I3:I10)</f>
         <v>65.375</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="M11" s="5">
+      <c r="J12" s="5"/>
+      <c r="K12" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.18788819875776397</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5">
         <f>AVERAGE(M3:M10)</f>
         <v>3.8993144590944482</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N12" s="5">
         <f>AVERAGE(N3:N10)</f>
         <v>4.833432649578512</v>
       </c>
-      <c r="O11" s="5">
-        <f>AVERAGE(O3:O10)</f>
+      <c r="O12" s="1"/>
+      <c r="P12" s="4">
+        <f t="shared" si="5"/>
+        <v>0.23955959445779026</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="5">
+        <f>AVERAGE(R3:R10)</f>
+        <v>17.5</v>
+      </c>
+      <c r="S12" s="5">
+        <f>AVERAGE(S3:S10)</f>
+        <v>10.125</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="4">
+        <f>((S12-R12)/R12)</f>
+        <v>-0.42142857142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5">
+        <f>AVERAGE(H8:H10)</f>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="I13" s="5">
+        <f>AVERAGE(I9:I10)</f>
+        <v>90.5</v>
+      </c>
+      <c r="J13" s="1">
+        <f>AVERAGE(J9:J10)</f>
+        <v>193</v>
+      </c>
+      <c r="M13" s="6">
+        <f>AVERAGE(M9:M10)</f>
+        <v>3.4465411637542784</v>
+      </c>
+      <c r="N13" s="6">
+        <f>AVERAGE(N9:N10)</f>
+        <v>4.1004034357105672</v>
+      </c>
+      <c r="O13" s="5">
+        <f>AVERAGE(O9:O10)</f>
         <v>1.9063923227065711</v>
+      </c>
+      <c r="R13" s="6">
+        <f>AVERAGE(R9:R10)</f>
+        <v>18</v>
+      </c>
+      <c r="S13" s="6">
+        <f>AVERAGE(S9:S10)</f>
+        <v>16</v>
+      </c>
+      <c r="T13" s="5">
+        <f>AVERAGE(T9:T10)</f>
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <f>_xlfn.STDEV.S(B3:B10)</f>
+        <v>106.01608705420944</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" ref="C14:U14" si="6">_xlfn.STDEV.S(D3:D10)</f>
+        <v>4.6732521560777904</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="6"/>
+        <v>3.4537764010675951</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.11692138218860045</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <f t="shared" si="6"/>
+        <v>27.599171830225011</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="6"/>
+        <v>25.399311014277533</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="6"/>
+        <v>26.870057685088806</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="6"/>
+        <v>9.6934409477068786E-2</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.70259555823660447</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.62396682140469284</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.52595954950652046</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.14683158524061429</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7">
+        <f t="shared" si="6"/>
+        <v>4.5039665058384131</v>
+      </c>
+      <c r="S14" s="7">
+        <f t="shared" si="6"/>
+        <v>5.5404357745062409</v>
+      </c>
+      <c r="T14" s="7">
+        <f t="shared" si="6"/>
+        <v>28.991378028648448</v>
+      </c>
+      <c r="U14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.29921561058523277</v>
       </c>
     </row>
   </sheetData>
